--- a/sector_analysis/top_lift_sup10_affinity.xlsx
+++ b/sector_analysis/top_lift_sup10_affinity.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="top_lift_sup10.csv" sheetId="1" r:id="rId1"/>
     <sheet name="concat_lookup" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Assoc_Rules_Matrix" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>

--- a/sector_analysis/top_lift_sup10_affinity.xlsx
+++ b/sector_analysis/top_lift_sup10_affinity.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="24440" windowHeight="14900" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="24440" windowHeight="14900" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="top_lift_sup10.csv" sheetId="1" r:id="rId1"/>
     <sheet name="concat_lookup" sheetId="4" r:id="rId2"/>
     <sheet name="Assoc_Rules_Matrix" sheetId="3" r:id="rId3"/>
+    <sheet name="Sector Analysis" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="47">
   <si>
     <t>Security1</t>
   </si>
@@ -109,12 +110,66 @@
   <si>
     <t>Security</t>
   </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Financials</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Non-Cyclical Consumer Goods &amp; Services</t>
+  </si>
+  <si>
+    <t>Industrials</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Cyclical Consumer Goods &amp; Services</t>
+  </si>
+  <si>
+    <t>Same Sector Rules</t>
+  </si>
+  <si>
+    <t>Same Sector</t>
+  </si>
+  <si>
+    <t>Same Sector Non-Rules</t>
+  </si>
+  <si>
+    <t>Rules</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Non-Rules</t>
+  </si>
+  <si>
+    <t>Rule</t>
+  </si>
+  <si>
+    <t>No Rule</t>
+  </si>
+  <si>
+    <t>Diff Sectors</t>
+  </si>
+  <si>
+    <t>Diff Sector</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -149,6 +204,15 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -167,7 +231,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -191,12 +255,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="39">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -208,6 +289,14 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -219,6 +308,14 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1002,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection sqref="A1:Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3507,6 +3604,7183 @@
       <c r="Y25">
         <f>COUNTIF(concat_lookup!$C$2:$D$17,CONCATENATE(Y$1," ",$A25))</f>
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="G84" sqref="G84"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27">
+      <c r="C1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W3" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L29" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" t="s">
+        <v>18</v>
+      </c>
+      <c r="N29" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P29" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s">
+        <v>7</v>
+      </c>
+      <c r="S29" t="s">
+        <v>9</v>
+      </c>
+      <c r="T29" t="s">
+        <v>11</v>
+      </c>
+      <c r="U29" t="s">
+        <v>13</v>
+      </c>
+      <c r="V29" t="s">
+        <v>16</v>
+      </c>
+      <c r="W29" t="s">
+        <v>19</v>
+      </c>
+      <c r="X29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <f>D4*(D$1=$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ref="E30:AA41" si="0">E4*(E$1=$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31:S53" si="1">D5*(D$1=$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:27">
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:27">
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:27">
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:27">
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:27">
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:27">
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:27">
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:27">
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:27">
+      <c r="C41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <f t="shared" ref="E41:AA52" si="2">V15*(V$1=$A15)</f>
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:27">
+      <c r="C42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="3:27">
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:27">
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:27">
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:27">
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:27">
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="3:27">
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:27">
+      <c r="C49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:27">
+      <c r="C50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:27">
+      <c r="C51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:27">
+      <c r="C52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <f t="shared" ref="E52:AA53" si="3">X26*(X$1=$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:27">
+      <c r="C53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:27">
+      <c r="B55" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" t="s">
+        <v>14</v>
+      </c>
+      <c r="K55" t="s">
+        <v>15</v>
+      </c>
+      <c r="L55" t="s">
+        <v>17</v>
+      </c>
+      <c r="M55" t="s">
+        <v>18</v>
+      </c>
+      <c r="N55" t="s">
+        <v>3</v>
+      </c>
+      <c r="O55" t="s">
+        <v>22</v>
+      </c>
+      <c r="P55" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>5</v>
+      </c>
+      <c r="R55" t="s">
+        <v>7</v>
+      </c>
+      <c r="S55" t="s">
+        <v>9</v>
+      </c>
+      <c r="T55" t="s">
+        <v>11</v>
+      </c>
+      <c r="U55" t="s">
+        <v>13</v>
+      </c>
+      <c r="V55" t="s">
+        <v>16</v>
+      </c>
+      <c r="W55" t="s">
+        <v>19</v>
+      </c>
+      <c r="X55" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="2:27">
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ref="E56:T56" si="4">(1-E4)*(E$1=$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U56">
+        <f>(1-U4)*(U$1=$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <f t="shared" ref="V56:AA56" si="5">(1-V4)*(V$1=$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AA56">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:27">
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57">
+        <f>(1-D5)*(D$1=$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ref="E57:T72" si="6">(1-F5)*(F$1=$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <f>(1-U5)*(U$1=$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <f t="shared" ref="V57:AA57" si="7">(1-V5)*(V$1=$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:27">
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ref="D58:S79" si="8">(1-D6)*(D$1=$A6)</f>
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U58">
+        <f t="shared" ref="U58:AA58" si="9">(1-U6)*(U$1=$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AA58">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:27">
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <f t="shared" ref="U59:AA59" si="10">(1-U7)*(U$1=$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:27">
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <f t="shared" ref="U60:AA60" si="11">(1-U8)*(U$1=$A8)</f>
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:27">
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <f t="shared" ref="U61:AA61" si="12">(1-U9)*(U$1=$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:27">
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U62">
+        <f t="shared" ref="U62:AA62" si="13">(1-U10)*(U$1=$A10)</f>
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AA62">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:27">
+      <c r="C63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <f t="shared" ref="U63:AA63" si="14">(1-U11)*(U$1=$A11)</f>
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X63">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Y63">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Z63">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:27">
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <f t="shared" ref="U64:AA64" si="15">(1-U12)*(U$1=$A12)</f>
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="W64">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X64">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="Z64">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="3:27">
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <f t="shared" ref="U65:AA65" si="16">(1-U13)*(U$1=$A13)</f>
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y65">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="3:27">
+      <c r="C66" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U66">
+        <f t="shared" ref="U66:AA66" si="17">(1-U14)*(U$1=$A14)</f>
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="AA66">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="3:27">
+      <c r="C67" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <f t="shared" ref="U67:AA67" si="18">(1-U15)*(U$1=$A15)</f>
+        <v>1</v>
+      </c>
+      <c r="V67">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="3:27">
+      <c r="C68" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="T68">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <f t="shared" ref="U68:AA68" si="19">(1-U16)*(U$1=$A16)</f>
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="W68">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="X68">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="Z68">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="3:27">
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <f t="shared" ref="U69:AA69" si="20">(1-U17)*(U$1=$A17)</f>
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="3:27">
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U70">
+        <f t="shared" ref="U70:AA70" si="21">(1-U18)*(U$1=$A18)</f>
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AA70">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="3:27">
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <f t="shared" ref="U71:AA71" si="22">(1-U19)*(U$1=$A19)</f>
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="W71">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="X71">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="Z71">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="3:27">
+      <c r="C72" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <f t="shared" ref="U72:AA72" si="23">(1-U20)*(U$1=$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AA72">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="3:27">
+      <c r="C73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ref="E73:T79" si="24">(1-E21)*(E$1=$A21)</f>
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <f t="shared" ref="U73:AA73" si="25">(1-V21)*(V$1=$A21)</f>
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="3:27">
+      <c r="C74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="T74">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <f t="shared" ref="U74:AA74" si="26">(1-U22)*(U$1=$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="X74">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="Z74">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="3:27">
+      <c r="C75" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="T75">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <f t="shared" ref="U75:AA75" si="27">(1-U23)*(U$1=$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="Z75">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="3:27">
+      <c r="C76" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <f t="shared" ref="U76:AA76" si="28">(1-U24)*(U$1=$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="3:27">
+      <c r="C77" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <f t="shared" ref="U77:AA77" si="29">(1-U25)*(U$1=$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="W77">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="X77">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="3:27">
+      <c r="C78" t="s">
+        <v>23</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="U78">
+        <f t="shared" ref="U78:AA78" si="30">(1-U26)*(U$1=$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="3:27">
+      <c r="C79" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="T79">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <f t="shared" ref="U79:AA79" si="31">(1-U27)*(U$1=$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="W79">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="X79">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="Z79">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12">
+      <c r="C81" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J81" t="s">
+        <v>43</v>
+      </c>
+      <c r="K81" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12">
+      <c r="C82" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D82">
+        <f>SUM(D30:AA53)/2</f>
+        <v>10</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G82">
+        <f>SUM(D56:AA79)/2</f>
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>38</v>
+      </c>
+      <c r="J82">
+        <f>D82</f>
+        <v>10</v>
+      </c>
+      <c r="K82">
+        <f>G82</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="3:12">
+      <c r="C83" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D83">
+        <f>SUM(D4:AA27)/2-D82</f>
+        <v>6</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G83">
+        <f>23*22/2-G82-D82-D83</f>
+        <v>191</v>
+      </c>
+      <c r="I83" t="s">
+        <v>46</v>
+      </c>
+      <c r="J83">
+        <f>D83</f>
+        <v>6</v>
+      </c>
+      <c r="K83">
+        <f>G83</f>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12">
+      <c r="K86">
+        <f>23*22/2</f>
+        <v>253</v>
+      </c>
+      <c r="L86">
+        <f>SUM(J82:K83)</f>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/sector_analysis/top_lift_sup10_affinity.xlsx
+++ b/sector_analysis/top_lift_sup10_affinity.xlsx
@@ -3621,8 +3621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="G84" sqref="G84"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="K87" sqref="K87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10758,8 +10758,8 @@
         <v>45</v>
       </c>
       <c r="G83">
-        <f>23*22/2-G82-D82-D83</f>
-        <v>191</v>
+        <f>24*23/2-G82-D82-D83</f>
+        <v>214</v>
       </c>
       <c r="I83" t="s">
         <v>46</v>
@@ -10770,17 +10770,17 @@
       </c>
       <c r="K83">
         <f>G83</f>
-        <v>191</v>
+        <v>214</v>
       </c>
     </row>
     <row r="86" spans="3:12">
       <c r="K86">
-        <f>23*22/2</f>
-        <v>253</v>
+        <f>24*23/2</f>
+        <v>276</v>
       </c>
       <c r="L86">
         <f>SUM(J82:K83)</f>
-        <v>253</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
